--- a/spliced/walkingToRunning/2023-04-03_16-56-03/data_selected.xlsx
+++ b/spliced/walkingToRunning/2023-04-03_16-56-03/data_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,22 +485,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3.778092861175537</v>
+        <v>18.70621109008789</v>
       </c>
       <c r="D2" t="n">
-        <v>-22.78524398803711</v>
+        <v>-5.636280059814453</v>
       </c>
       <c r="E2" t="n">
-        <v>-3.958083152770996</v>
+        <v>6.914060115814209</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5775272211090444</v>
+        <v>-1.059356399572612</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0146637725048413</v>
+        <v>-0.06877905879515356</v>
       </c>
       <c r="H2" t="n">
-        <v>-1.515189159111897</v>
+        <v>2.407926618075761</v>
       </c>
     </row>
     <row r="3">
@@ -513,22 +513,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2.934078931808472</v>
+        <v>19.93985939025879</v>
       </c>
       <c r="D3" t="n">
-        <v>-15.44094562530518</v>
+        <v>-3.599599838256836</v>
       </c>
       <c r="E3" t="n">
-        <v>5.820011138916016</v>
+        <v>8.073759078979492</v>
       </c>
       <c r="F3" t="n">
-        <v>0.249050316914834</v>
+        <v>-1.104726179701384</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.07265009759554075</v>
+        <v>1.440624993355549</v>
       </c>
       <c r="H3" t="n">
-        <v>-1.409026505517179</v>
+        <v>1.773343285576245</v>
       </c>
     </row>
     <row r="4">
@@ -541,22 +541,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4.875381946563721</v>
+        <v>27.86785316467285</v>
       </c>
       <c r="D4" t="n">
-        <v>-9.622690200805664</v>
+        <v>-18.30047225952148</v>
       </c>
       <c r="E4" t="n">
-        <v>6.132236003875732</v>
+        <v>6.377731800079346</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5930084967222389</v>
+        <v>-0.5441059966882074</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.6991769568841986</v>
+        <v>0.8777113159497576</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.9499499341829204</v>
+        <v>1.207277496655782</v>
       </c>
     </row>
     <row r="5">
@@ -569,22 +569,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>8.527345657348633</v>
+        <v>-0.164954662322998</v>
       </c>
       <c r="D5" t="n">
-        <v>-8.132190704345703</v>
+        <v>-10.53660011291504</v>
       </c>
       <c r="E5" t="n">
-        <v>4.089809417724609</v>
+        <v>4.150550365447998</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.2006309745741717</v>
+        <v>0.1515757088127038</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.3479190895059043</v>
+        <v>0.07700501178783151</v>
       </c>
       <c r="H5" t="n">
-        <v>0.3913984435503643</v>
+        <v>0.8280433637848317</v>
       </c>
     </row>
     <row r="6">
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>12.29200172424316</v>
+        <v>5.472853660583496</v>
       </c>
       <c r="D6" t="n">
-        <v>-11.73352718353272</v>
+        <v>-46.38559722900391</v>
       </c>
       <c r="E6" t="n">
-        <v>6.85174560546875</v>
+        <v>-0.9001345634460449</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.9682908172164458</v>
+        <v>-0.8091414912802259</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.6861609239640158</v>
+        <v>0.04339970233010434</v>
       </c>
       <c r="H6" t="n">
-        <v>1.977810103385178</v>
+        <v>1.094123736756746</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>18.70621109008789</v>
+        <v>3.861607551574707</v>
       </c>
       <c r="D7" t="n">
-        <v>-5.636280059814453</v>
+        <v>-19.79164886474609</v>
       </c>
       <c r="E7" t="n">
-        <v>6.914060115814209</v>
+        <v>0.622889518737793</v>
       </c>
       <c r="F7" t="n">
-        <v>-1.059356399572612</v>
+        <v>-1.296450522428008</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.06877905879515356</v>
+        <v>0.4430659739046126</v>
       </c>
       <c r="H7" t="n">
-        <v>2.407926618075761</v>
+        <v>1.507120371190581</v>
       </c>
     </row>
     <row r="8">
@@ -653,22 +653,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>19.93985939025879</v>
+        <v>14.61344242095947</v>
       </c>
       <c r="D8" t="n">
-        <v>-3.599599838256836</v>
+        <v>-10.30790042877197</v>
       </c>
       <c r="E8" t="n">
-        <v>8.073759078979492</v>
+        <v>17.13724899291992</v>
       </c>
       <c r="F8" t="n">
-        <v>-1.104726179701384</v>
+        <v>1.030188943722537</v>
       </c>
       <c r="G8" t="n">
-        <v>1.440624993355549</v>
+        <v>1.112867043969416</v>
       </c>
       <c r="H8" t="n">
-        <v>1.773343285576245</v>
+        <v>-0.4273038459280109</v>
       </c>
     </row>
     <row r="9">
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>27.86785316467285</v>
+        <v>2.93750786781311</v>
       </c>
       <c r="D9" t="n">
-        <v>-18.30047225952148</v>
+        <v>-46.01893997192383</v>
       </c>
       <c r="E9" t="n">
-        <v>6.377731800079346</v>
+        <v>7.825448036193848</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.5441059966882074</v>
+        <v>-0.01950983642064261</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8777113159497576</v>
+        <v>-2.121916278463881</v>
       </c>
       <c r="H9" t="n">
-        <v>1.207277496655782</v>
+        <v>-2.743124836780999</v>
       </c>
     </row>
     <row r="10">
@@ -709,22 +709,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-0.164954662322998</v>
+        <v>-20.74547958374023</v>
       </c>
       <c r="D10" t="n">
-        <v>-10.53660011291504</v>
+        <v>-0.2439025640487671</v>
       </c>
       <c r="E10" t="n">
-        <v>4.150550365447998</v>
+        <v>8.103152275085449</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1515757088127038</v>
+        <v>2.686820753651581</v>
       </c>
       <c r="G10" t="n">
-        <v>0.07700501178783151</v>
+        <v>-0.1019303134230194</v>
       </c>
       <c r="H10" t="n">
-        <v>0.8280433637848317</v>
+        <v>-4.739581848102853</v>
       </c>
     </row>
     <row r="11">
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5.472853660583496</v>
+        <v>-20.94050025939941</v>
       </c>
       <c r="D11" t="n">
-        <v>-46.38559722900391</v>
+        <v>-7.066665649414063</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.9001345634460449</v>
+        <v>6.037558555603027</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.8091414912802259</v>
+        <v>2.067020179144016</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04339970233010434</v>
+        <v>4.138878788453006</v>
       </c>
       <c r="H11" t="n">
-        <v>1.094123736756746</v>
+        <v>-7.458814548013004</v>
       </c>
     </row>
     <row r="12">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3.861607551574707</v>
+        <v>29.87363624572754</v>
       </c>
       <c r="D12" t="n">
-        <v>-19.79164886474609</v>
+        <v>-61.11213684082031</v>
       </c>
       <c r="E12" t="n">
-        <v>0.622889518737793</v>
+        <v>14.88786697387695</v>
       </c>
       <c r="F12" t="n">
-        <v>-1.296450522428008</v>
+        <v>-1.318529965447579</v>
       </c>
       <c r="G12" t="n">
-        <v>0.4430659739046126</v>
+        <v>-0.9071916752173932</v>
       </c>
       <c r="H12" t="n">
-        <v>1.507120371190581</v>
+        <v>2.900026571555154</v>
       </c>
     </row>
     <row r="13">
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>14.61344242095947</v>
+        <v>4.961847305297852</v>
       </c>
       <c r="D13" t="n">
-        <v>-10.30790042877197</v>
+        <v>-15.47994041442871</v>
       </c>
       <c r="E13" t="n">
-        <v>17.13724899291992</v>
+        <v>18.70905494689941</v>
       </c>
       <c r="F13" t="n">
-        <v>1.030188943722537</v>
+        <v>-5.118491420328921</v>
       </c>
       <c r="G13" t="n">
-        <v>1.112867043969416</v>
+        <v>-0.9277605919238714</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.4273038459280109</v>
+        <v>7.022751289638649</v>
       </c>
     </row>
     <row r="14">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2.93750786781311</v>
+        <v>-0.8285019397735596</v>
       </c>
       <c r="D14" t="n">
-        <v>-46.01893997192383</v>
+        <v>-6.118541240692139</v>
       </c>
       <c r="E14" t="n">
-        <v>7.825448036193848</v>
+        <v>8.952471733093262</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.01950983642064261</v>
+        <v>-4.701338476170607</v>
       </c>
       <c r="G14" t="n">
-        <v>-2.121916278463881</v>
+        <v>4.033473036979721</v>
       </c>
       <c r="H14" t="n">
-        <v>-2.743124836780999</v>
+        <v>6.285576557201113</v>
       </c>
     </row>
     <row r="15">
@@ -849,22 +849,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-20.74547958374023</v>
+        <v>0.8424484729766846</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.2439025640487671</v>
+        <v>-38.40699005126953</v>
       </c>
       <c r="E15" t="n">
-        <v>8.103152275085449</v>
+        <v>14.60053634643555</v>
       </c>
       <c r="F15" t="n">
-        <v>2.686820753651581</v>
+        <v>0.6423424071953132</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.1019303134230194</v>
+        <v>-1.238872872024314</v>
       </c>
       <c r="H15" t="n">
-        <v>-4.739581848102853</v>
+        <v>0.4076568924012518</v>
       </c>
     </row>
     <row r="16">
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-20.94050025939941</v>
+        <v>1.708237409591675</v>
       </c>
       <c r="D16" t="n">
-        <v>-7.066665649414063</v>
+        <v>32.82785034179688</v>
       </c>
       <c r="E16" t="n">
-        <v>6.037558555603027</v>
+        <v>13.28276348114014</v>
       </c>
       <c r="F16" t="n">
-        <v>2.067020179144016</v>
+        <v>2.748690418858344</v>
       </c>
       <c r="G16" t="n">
-        <v>4.138878788453006</v>
+        <v>-5.918399258389504</v>
       </c>
       <c r="H16" t="n">
-        <v>-7.458814548013004</v>
+        <v>-5.032549650942702</v>
       </c>
     </row>
     <row r="17">
@@ -905,22 +905,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>29.87363624572754</v>
+        <v>-19.85161781311035</v>
       </c>
       <c r="D17" t="n">
-        <v>-61.11213684082031</v>
+        <v>-6.960978984832764</v>
       </c>
       <c r="E17" t="n">
-        <v>14.88786697387695</v>
+        <v>4.844282150268555</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.318529965447579</v>
+        <v>3.90800370544684</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.9071916752173932</v>
+        <v>1.824196169285198</v>
       </c>
       <c r="H17" t="n">
-        <v>2.900026571555154</v>
+        <v>-6.420193484572113</v>
       </c>
     </row>
     <row r="18">
@@ -933,22 +933,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4.961847305297852</v>
+        <v>-47.64518356323242</v>
       </c>
       <c r="D18" t="n">
-        <v>-15.47994041442871</v>
+        <v>-56.76200866699219</v>
       </c>
       <c r="E18" t="n">
-        <v>18.70905494689941</v>
+        <v>40.71841812133789</v>
       </c>
       <c r="F18" t="n">
-        <v>-5.118491420328921</v>
+        <v>-0.09310042271849372</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.9277605919238714</v>
+        <v>3.190837242564208</v>
       </c>
       <c r="H18" t="n">
-        <v>7.022751289638649</v>
+        <v>-1.485911830526877</v>
       </c>
     </row>
     <row r="19">
@@ -961,22 +961,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-0.8285019397735596</v>
+        <v>-2.008986234664917</v>
       </c>
       <c r="D19" t="n">
-        <v>-6.118541240692139</v>
+        <v>-3.396074771881104</v>
       </c>
       <c r="E19" t="n">
-        <v>8.952471733093262</v>
+        <v>5.574520111083984</v>
       </c>
       <c r="F19" t="n">
-        <v>-4.701338476170607</v>
+        <v>-5.086900020557672</v>
       </c>
       <c r="G19" t="n">
-        <v>4.033473036979721</v>
+        <v>-0.347581442587992</v>
       </c>
       <c r="H19" t="n">
-        <v>6.285576557201113</v>
+        <v>4.233577517212423</v>
       </c>
     </row>
     <row r="20">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.8424484729766846</v>
+        <v>1.793292045593261</v>
       </c>
       <c r="D20" t="n">
-        <v>-38.40699005126953</v>
+        <v>1.589181900024414</v>
       </c>
       <c r="E20" t="n">
-        <v>14.60053634643555</v>
+        <v>13.23852920532227</v>
       </c>
       <c r="F20" t="n">
-        <v>0.6423424071953132</v>
+        <v>-4.690330617414796</v>
       </c>
       <c r="G20" t="n">
-        <v>-1.238872872024314</v>
+        <v>3.666637846680965</v>
       </c>
       <c r="H20" t="n">
-        <v>0.4076568924012518</v>
+        <v>4.422437811158368</v>
       </c>
     </row>
     <row r="21">
@@ -1017,22 +1017,302 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1.708237409591675</v>
+        <v>0.5213950872421265</v>
       </c>
       <c r="D21" t="n">
-        <v>32.82785034179688</v>
+        <v>-13.69121932983398</v>
       </c>
       <c r="E21" t="n">
-        <v>13.28276348114014</v>
+        <v>13.58244514465332</v>
       </c>
       <c r="F21" t="n">
-        <v>2.748690418858344</v>
+        <v>-3.853545032563759</v>
       </c>
       <c r="G21" t="n">
-        <v>-5.918399258389504</v>
+        <v>7.179606515853127</v>
       </c>
       <c r="H21" t="n">
-        <v>-5.032549650942702</v>
+        <v>0.02150726318360263</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>-25.09261322021484</v>
+      </c>
+      <c r="D22" t="n">
+        <v>15.60748481750488</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.5675735473632812</v>
+      </c>
+      <c r="F22" t="n">
+        <v>-0.654346335781087</v>
+      </c>
+      <c r="G22" t="n">
+        <v>7.300580988816252</v>
+      </c>
+      <c r="H22" t="n">
+        <v>-5.563441323452309</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2100</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>-30.59898567199707</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-12.55906105041504</v>
+      </c>
+      <c r="E23" t="n">
+        <v>3.974555969238281</v>
+      </c>
+      <c r="F23" t="n">
+        <v>3.714518678644319</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-2.467024099305689</v>
+      </c>
+      <c r="H23" t="n">
+        <v>-5.610007460651495</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2200</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>-38.86380767822266</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-84.71040344238281</v>
+      </c>
+      <c r="E24" t="n">
+        <v>66.18233489990234</v>
+      </c>
+      <c r="F24" t="n">
+        <v>2.151245980966297</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.7463607152954532</v>
+      </c>
+      <c r="H24" t="n">
+        <v>-6.372515623686779</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2300</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>-8.86505126953125</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-2.532943964004517</v>
+      </c>
+      <c r="E25" t="n">
+        <v>5.462150573730469</v>
+      </c>
+      <c r="F25" t="n">
+        <v>-1.10870781817722</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-0.5732807598478937</v>
+      </c>
+      <c r="H25" t="n">
+        <v>3.703908173764338</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2400</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>7.391067981719971</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-1.471791982650757</v>
+      </c>
+      <c r="E26" t="n">
+        <v>18.45427322387696</v>
+      </c>
+      <c r="F26" t="n">
+        <v>-3.764231722211575</v>
+      </c>
+      <c r="G26" t="n">
+        <v>3.633465962331838</v>
+      </c>
+      <c r="H26" t="n">
+        <v>3.590699133977193</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2500</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>-4.55918025970459</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-21.72416114807129</v>
+      </c>
+      <c r="E27" t="n">
+        <v>-0.08992767333984369</v>
+      </c>
+      <c r="F27" t="n">
+        <v>-3.505413231302479</v>
+      </c>
+      <c r="G27" t="n">
+        <v>9.71845419680489</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.237572531231097</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2600</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>-17.91468048095703</v>
+      </c>
+      <c r="D28" t="n">
+        <v>18.05105400085449</v>
+      </c>
+      <c r="E28" t="n">
+        <v>-10.55736446380615</v>
+      </c>
+      <c r="F28" t="n">
+        <v>-2.849029684327336</v>
+      </c>
+      <c r="G28" t="n">
+        <v>8.877369792083568</v>
+      </c>
+      <c r="H28" t="n">
+        <v>-7.541428113895723</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>2700</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>-62.19514083862305</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-14.345703125</v>
+      </c>
+      <c r="E29" t="n">
+        <v>3.762966632843018</v>
+      </c>
+      <c r="F29" t="n">
+        <v>3.086845004493447</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-5.60899220659439</v>
+      </c>
+      <c r="H29" t="n">
+        <v>-5.2191632692931</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>2800</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>-47.85998153686523</v>
+      </c>
+      <c r="D30" t="n">
+        <v>-73.05361175537109</v>
+      </c>
+      <c r="E30" t="n">
+        <v>52.46365737915039</v>
+      </c>
+      <c r="F30" t="n">
+        <v>3.54143344769713</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-2.492278899325752</v>
+      </c>
+      <c r="H30" t="n">
+        <v>-5.184806862815476</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>2900</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>-2.905624389648437</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1.127065658569336</v>
+      </c>
+      <c r="E31" t="n">
+        <v>7.177680492401123</v>
+      </c>
+      <c r="F31" t="n">
+        <v>-0.4025364195714203</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-2.233978587095854</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.2824505248356344</v>
       </c>
     </row>
   </sheetData>
